--- a/experiments/capital/bert-base-cased_15/99/word_level_error_type_summary.xlsx
+++ b/experiments/capital/bert-base-cased_15/99/word_level_error_type_summary.xlsx
@@ -443,37 +443,37 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -483,7 +483,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Missed_I-Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
       <c r="B6" t="n">
